--- a/tables/1983/1983_Table1.xlsx
+++ b/tables/1983/1983_Table1.xlsx
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -165,16 +171,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -498,21 +507,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="2" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,16 +983,18 @@
         <v>8.5</v>
       </c>
       <c r="D12" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -999,14 +1010,16 @@
       <c r="D13" s="6">
         <v>2.8</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
+      <c r="E13" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1"/>
     </row>
   </sheetData>
